--- a/Matchups/matchupsdeturbidez/L7.xlsx
+++ b/Matchups/matchupsdeturbidez/L7.xlsx
@@ -46,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -148,12 +149,12 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Matchups/matchupsdeturbidez/L7.xlsx
+++ b/Matchups/matchupsdeturbidez/L7.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2019-12-10" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2019-12-17" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="3">
   <si>
     <t xml:space="preserve">StationID</t>
   </si>
@@ -143,15 +144,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="17.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -208,25 +210,28 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.491845726966858</v>
+        <v>0.0229470897465944</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.033242542296648</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.0106966495513916</v>
+        <v>0.0436196736991406</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.0582003220915794</v>
+        <v>0.0698573514819145</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.065983273088932</v>
+        <v>0.0652365237474442</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.0188939925283194</v>
+        <v>0.0251086577773094</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.00919715315103531</v>
+        <v>0.0129056684672833</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -234,25 +239,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.0229470897465944</v>
+        <v>0.0272510759532452</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.033242542296648</v>
+        <v>0.0375788398087025</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.0436196736991406</v>
+        <v>0.0479110851883888</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.0698573514819145</v>
+        <v>0.0739728435873985</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.0652365237474442</v>
+        <v>0.0689310356974602</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.0251086577773094</v>
+        <v>0.0281836781650782</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.0129056684672833</v>
+        <v>0.0157025791704655</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -260,51 +265,48 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.0272510759532452</v>
+        <v>0.0296916123479605</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.0375788398087025</v>
+        <v>0.0364551581442356</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.0479110851883888</v>
+        <v>0.0434254817664623</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.0739728435873985</v>
+        <v>0.0711565539240837</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.0689310356974602</v>
+        <v>0.0646980330348015</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.0281836781650782</v>
+        <v>0.0210414174944162</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.0157025791704655</v>
+        <v>0.0100848032161593</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.0540561527013779</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.0593605190515518</v>
+        <v>0.434030920267105</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.0622571632266045</v>
+        <v>0.0159025639295578</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.0823594927787781</v>
+        <v>0.053286824375391</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.0777811408042908</v>
+        <v>0.0595074445009232</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.0262174904346466</v>
+        <v>0.0162639487534761</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.0129173183813691</v>
+        <v>0.00771039817482233</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -312,229 +314,50 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.0296916123479605</v>
+        <v>0.0489126965403557</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.0364551581442356</v>
+        <v>0.0505331382155419</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.0434254817664623</v>
+        <v>0.0549294166266918</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0.0711565539240837</v>
+        <v>0.0800106078386307</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.0646980330348015</v>
+        <v>0.0732996091246605</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.0210414174944162</v>
+        <v>0.027456670999527</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.0100848032161593</v>
+        <v>0.0146855106577277</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.0637392029166222</v>
+        <v>0.0405027009546757</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.0680204331874847</v>
+        <v>0.044271495193243</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.0697434917092323</v>
+        <v>0.0496543236076832</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0.0888541042804718</v>
+        <v>0.0743321552872658</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.0832997709512711</v>
+        <v>0.0684394612908363</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.0311656016856432</v>
+        <v>0.0238435119390488</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.016881674528122</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.0438198857009411</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.0498477034270764</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.0548910349607468</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.0765795558691025</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.073475569486618</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0.023426067084074</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0.0114099457859993</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.0354575887322426</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.047880232334137</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.057188767939806</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0.0809737741947174</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.0748068243265152</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.0312431454658508</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0.0177209433168173</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.0315455235540867</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.0440836176276207</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0.0546116568148136</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0.0779217183589935</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.0722157955169678</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0.0277633052319288</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0.0145942727103829</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.434030920267105</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.0159025639295578</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.053286824375391</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.0595074445009232</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.0162639487534761</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0.00771039817482233</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.0172455497086048</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.0330522507429123</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.0454929582774639</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.0716942846775055</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0.0688684284687042</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0.023931086063385</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0.0117872562259436</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.0489126965403557</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0.0505331382155419</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0.0549294166266918</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0.0800106078386307</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0.0732996091246605</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0.027456670999527</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0.0146855106577277</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.0405027009546757</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0.044271495193243</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.0496543236076832</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0.0743321552872658</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0.0684394612908363</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0.0238435119390488</v>
-      </c>
-      <c r="H15" s="0" t="n">
         <v>0.0118169123306871</v>
       </c>
     </row>
@@ -547,4 +370,237 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="17.68"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.0637392029166222</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.0680204331874847</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.0697434917092323</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.0888541042804718</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.0832997709512711</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.0311656016856432</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.016881674528122</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.0438198857009411</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.0498477034270764</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.0548910349607468</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.0765795558691025</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.073475569486618</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.023426067084074</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.0114099457859993</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0354575887322426</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.047880232334137</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.057188767939806</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.0809737741947174</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.0748068243265152</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.0312431454658508</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.0177209433168173</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.0315455235540867</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.0440836176276207</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.0546116568148136</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.0779217183589935</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.0722157955169678</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.0277633052319288</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.0145942727103829</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.491845726966858</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.0106966495513916</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.0582003220915794</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.065983273088932</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.0188939925283194</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.00919715315103531</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.0172455497086048</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.0330522507429123</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.0454929582774639</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.0716942846775055</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.0688684284687042</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.023931086063385</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.0117872562259436</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.0540561527013779</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.0593605190515518</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.0622571632266045</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.0823594927787781</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.0777811408042908</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.0262174904346466</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.0129173183813691</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>